--- a/NewExperience/build/resources/test/data/Data.xlsx
+++ b/NewExperience/build/resources/test/data/Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>functionality</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t xml:space="preserve">successful </t>
+  </si>
+  <si>
+    <t>juanosorio199@gmail.com</t>
   </si>
   <si>
     <t>prueba456</t>
@@ -1172,7 +1175,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1201,19 +1204,19 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="juanpaosorio199@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId1" display="juanpaosorio199@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="juanosorio199@gmail.com" tooltip="mailto:juanosorio199@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
